--- a/excel-editing/processed/manual correlation.xlsx
+++ b/excel-editing/processed/manual correlation.xlsx
@@ -1,26 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katebanner/Optiver-Challenge/excel-editing/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29D5CD7-3DE4-C347-85BF-7CC6ED33F847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFE1C67-10E3-D443-AA29-4C47C554643C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="r" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="21">
   <si>
     <t>date</t>
   </si>
@@ -81,12 +99,15 @@
   <si>
     <t>US_Regular_All_Formulations_Gas_Price</t>
   </si>
+  <si>
+    <t>Column1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -100,6 +121,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -109,7 +138,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -117,13 +146,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -139,6 +197,35 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{40F2450E-10E9-B842-BB67-D43A3D28E292}" name="Table3" displayName="Table3" ref="A1:T20" totalsRowShown="0">
+  <autoFilter ref="A1:T20" xr:uid="{40F2450E-10E9-B842-BB67-D43A3D28E292}"/>
+  <tableColumns count="20">
+    <tableColumn id="1" xr3:uid="{79D6808F-B347-1E46-B48C-5E7716D53E24}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{B49D02A2-8051-7F4A-87E4-C1C08ED7F437}" name="Average_Price_Eggs_Grade_A_Large_Cost_per_Dozen_in_US_City_Average"/>
+    <tableColumn id="3" xr3:uid="{1579B9DD-C74E-7548-B68A-5F4F7088A056}" name="Average_Price_Chicken_Breast_Boneless_Cost_per_Pound4536_Grams_in_US_City_Average"/>
+    <tableColumn id="4" xr3:uid="{5C14D5A9-0F6F-8246-9D21-8C8E0FABFA26}" name="Average_Price_Chicken_Fresh_Whole_Cost_per_Pound4536_Grams_in_US_City_Average"/>
+    <tableColumn id="5" xr3:uid="{B6944EF6-6D31-5F47-ADD6-D25C3C070EA1}" name="Average_Price_Milk_Fresh_Whole_Fortified_Cost_per_Gallon38_Liters_in_US_City_Average"/>
+    <tableColumn id="6" xr3:uid="{8384501A-170D-934B-9C4F-07205E120968}" name="Consumer_Price_Index_for_All_Urban_Consumers_All_Items_in_US_City_Average"/>
+    <tableColumn id="7" xr3:uid="{0D5AFE82-F0FF-AB4C-BC1C-85EED8990CC8}" name="Consumer_Price_Index_for_All_Urban_Consumers_Energy_Services_in_US_City_Average"/>
+    <tableColumn id="8" xr3:uid="{2A3A1AF0-7F29-6945-8019-79E25B898963}" name="Consumer_Price_Index_for_All_Urban_Consumers_Food_in_US_City_Average"/>
+    <tableColumn id="9" xr3:uid="{066B0E7D-7DA6-994D-8112-181AB26B00C1}" name="Federal_Funds_Effective_Rate"/>
+    <tableColumn id="10" xr3:uid="{464FBA4F-82D3-1145-AA70-C0EE24CC3495}" name="Personal_Consumption_Expenditures"/>
+    <tableColumn id="11" xr3:uid="{29EC15B9-976D-4B40-9F5F-2336E3E8BC5D}" name="Producer_Price_Index_by_Commodity_Farm_Products_Corn"/>
+    <tableColumn id="12" xr3:uid="{A9AFC438-067B-1343-ABC8-27686EE51957}" name="Producer_Price_Index_by_Commodity_Farm_Products_Soybeans"/>
+    <tableColumn id="13" xr3:uid="{5D4940DD-FD6D-5F46-966A-2C1E99D20710}" name="Producer_Price_Index_by_Commodity_Processed_Foods_and_Feeds_Chicken_and_Turkey_Feed_Supplements__________Concentrates_and_Premixes"/>
+    <tableColumn id="14" xr3:uid="{C47B5D5E-A866-7445-A3DE-618146A8C2D5}" name="Real_Disposable_Personal_Income"/>
+    <tableColumn id="15" xr3:uid="{343E1D7A-C59D-1F49-BF9B-DFDF918B647E}" name="Retail_Sales_Restaurants_and_Other_Eating_Places"/>
+    <tableColumn id="16" xr3:uid="{70EF4D8C-117E-BD4D-A062-0C750D75985E}" name="Retail_Sales_Retail_Trade_and_Food_Services"/>
+    <tableColumn id="17" xr3:uid="{C3E95B0E-8B40-DB44-AC5F-4E8992262361}" name="Unemployment_Rate"/>
+    <tableColumn id="18" xr3:uid="{8ED10EFE-BBF7-7D48-822C-F430B2FF9527}" name="University_of_Michigan_Consumer_Sentiment"/>
+    <tableColumn id="19" xr3:uid="{31D113A9-50FB-AC49-B5D0-384BC05355BF}" name="US_Diesel_Sales_Price"/>
+    <tableColumn id="20" xr3:uid="{DF499CAB-3E1F-564A-A391-7DE0EE55C2B9}" name="US_Regular_All_Formulations_Gas_Price"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -419,11 +506,3180 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430B9B48-1CAC-BF43-9C49-008801B879B6}">
+  <dimension ref="A1:T20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:T20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.74209372874837232</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.64527555890791555</v>
+      </c>
+      <c r="C4">
+        <v>0.67096561264570265</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.69592891055480222</v>
+      </c>
+      <c r="C5">
+        <v>0.80561452907766284</v>
+      </c>
+      <c r="D5">
+        <v>0.54656646799752839</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.61616606955935349</v>
+      </c>
+      <c r="C6">
+        <v>0.6720754192037881</v>
+      </c>
+      <c r="D6">
+        <v>0.94561400932628215</v>
+      </c>
+      <c r="E6">
+        <v>0.53831151523600729</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.74131938497187044</v>
+      </c>
+      <c r="C7">
+        <v>0.84187201857440208</v>
+      </c>
+      <c r="D7">
+        <v>0.87802830890138273</v>
+      </c>
+      <c r="E7">
+        <v>0.70256608353198891</v>
+      </c>
+      <c r="F7">
+        <v>0.93066506401697935</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.64081364293971377</v>
+      </c>
+      <c r="C8">
+        <v>0.6849367435522824</v>
+      </c>
+      <c r="D8">
+        <v>0.9615292684865252</v>
+      </c>
+      <c r="E8">
+        <v>0.55307086566566865</v>
+      </c>
+      <c r="F8">
+        <v>0.99581834073954112</v>
+      </c>
+      <c r="G8">
+        <v>0.93047618236855645</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.29846032067717415</v>
+      </c>
+      <c r="C9">
+        <v>0.43710756314352345</v>
+      </c>
+      <c r="D9">
+        <v>0.15067747613983237</v>
+      </c>
+      <c r="E9">
+        <v>0.25134441896242404</v>
+      </c>
+      <c r="F9">
+        <v>0.27622296770916943</v>
+      </c>
+      <c r="G9">
+        <v>0.41435639636349575</v>
+      </c>
+      <c r="H9">
+        <v>0.24086591831278165</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.58781558541164947</v>
+      </c>
+      <c r="C10">
+        <v>0.65211393121602768</v>
+      </c>
+      <c r="D10">
+        <v>0.91827181678978942</v>
+      </c>
+      <c r="E10">
+        <v>0.50228965666348968</v>
+      </c>
+      <c r="F10">
+        <v>0.99368732022627959</v>
+      </c>
+      <c r="G10">
+        <v>0.91989927248269754</v>
+      </c>
+      <c r="H10">
+        <v>0.98455073013162464</v>
+      </c>
+      <c r="I10">
+        <v>0.31687858939657376</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.35179983214521898</v>
+      </c>
+      <c r="C11">
+        <v>0.40540934766320391</v>
+      </c>
+      <c r="D11">
+        <v>0.30839266871718413</v>
+      </c>
+      <c r="E11">
+        <v>0.56839800296480358</v>
+      </c>
+      <c r="F11">
+        <v>0.3099782320257386</v>
+      </c>
+      <c r="G11">
+        <v>0.33492182090966705</v>
+      </c>
+      <c r="H11">
+        <v>0.31431543941140822</v>
+      </c>
+      <c r="I11">
+        <v>-0.19971053075842268</v>
+      </c>
+      <c r="J11">
+        <v>0.26079008516531982</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.36131901925872889</v>
+      </c>
+      <c r="C12">
+        <v>0.45788331383935477</v>
+      </c>
+      <c r="D12">
+        <v>0.4215599131055579</v>
+      </c>
+      <c r="E12">
+        <v>0.60326782624055508</v>
+      </c>
+      <c r="F12">
+        <v>0.37078353477719089</v>
+      </c>
+      <c r="G12">
+        <v>0.39075432617424466</v>
+      </c>
+      <c r="H12">
+        <v>0.38323118504838855</v>
+      </c>
+      <c r="I12">
+        <v>-0.2822645035001507</v>
+      </c>
+      <c r="J12">
+        <v>0.31236544603781752</v>
+      </c>
+      <c r="K12">
+        <v>0.87523736179453204</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0.52342059054634038</v>
+      </c>
+      <c r="C13">
+        <v>0.56672533689044258</v>
+      </c>
+      <c r="D13">
+        <v>0.6500696396159904</v>
+      </c>
+      <c r="E13">
+        <v>0.65198428165749744</v>
+      </c>
+      <c r="F13">
+        <v>0.60070325886879494</v>
+      </c>
+      <c r="G13">
+        <v>0.59025980598962702</v>
+      </c>
+      <c r="H13">
+        <v>0.61835128269913531</v>
+      </c>
+      <c r="I13">
+        <v>-0.20139890279854281</v>
+      </c>
+      <c r="J13">
+        <v>0.54120248944602456</v>
+      </c>
+      <c r="K13">
+        <v>0.8707979558957688</v>
+      </c>
+      <c r="L13">
+        <v>0.90026441526234569</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0.41214548397495082</v>
+      </c>
+      <c r="C14">
+        <v>0.44717625448645149</v>
+      </c>
+      <c r="D14">
+        <v>0.84652382019246153</v>
+      </c>
+      <c r="E14">
+        <v>0.32475118318813223</v>
+      </c>
+      <c r="F14">
+        <v>0.92424630184528045</v>
+      </c>
+      <c r="G14">
+        <v>0.77321032345833463</v>
+      </c>
+      <c r="H14">
+        <v>0.9154258940325114</v>
+      </c>
+      <c r="I14">
+        <v>0.16982841354078437</v>
+      </c>
+      <c r="J14">
+        <v>0.9329532216612203</v>
+      </c>
+      <c r="K14">
+        <v>0.17345777858584221</v>
+      </c>
+      <c r="L14">
+        <v>0.23288343866306269</v>
+      </c>
+      <c r="M14">
+        <v>0.44819383846098432</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0.58374119885545395</v>
+      </c>
+      <c r="C15">
+        <v>0.66664087802371741</v>
+      </c>
+      <c r="D15">
+        <v>0.89799747360700777</v>
+      </c>
+      <c r="E15">
+        <v>0.49668289177496378</v>
+      </c>
+      <c r="F15">
+        <v>0.97173762060699287</v>
+      </c>
+      <c r="G15">
+        <v>0.91400032464136183</v>
+      </c>
+      <c r="H15">
+        <v>0.96224240255343441</v>
+      </c>
+      <c r="I15">
+        <v>0.35499451803530724</v>
+      </c>
+      <c r="J15">
+        <v>0.98291508409043149</v>
+      </c>
+      <c r="K15">
+        <v>0.2521009037777644</v>
+      </c>
+      <c r="L15">
+        <v>0.30125955737630988</v>
+      </c>
+      <c r="M15">
+        <v>0.52785503424262359</v>
+      </c>
+      <c r="N15">
+        <v>0.89019970189420905</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.57819416947018487</v>
+      </c>
+      <c r="C16">
+        <v>0.67684243104959207</v>
+      </c>
+      <c r="D16">
+        <v>0.89571852867817781</v>
+      </c>
+      <c r="E16">
+        <v>0.5285879090572787</v>
+      </c>
+      <c r="F16">
+        <v>0.98180859124879949</v>
+      </c>
+      <c r="G16">
+        <v>0.91232318229810117</v>
+      </c>
+      <c r="H16">
+        <v>0.96935964449360534</v>
+      </c>
+      <c r="I16">
+        <v>0.33676245496352214</v>
+      </c>
+      <c r="J16">
+        <v>0.99267584101737405</v>
+      </c>
+      <c r="K16">
+        <v>0.28956533760977854</v>
+      </c>
+      <c r="L16">
+        <v>0.33352963813335573</v>
+      </c>
+      <c r="M16">
+        <v>0.54860160547382919</v>
+      </c>
+      <c r="N16">
+        <v>0.92689101789595429</v>
+      </c>
+      <c r="O16">
+        <v>0.9766260386380744</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>-0.26121279422495669</v>
+      </c>
+      <c r="C17">
+        <v>-0.32612304570015793</v>
+      </c>
+      <c r="D17">
+        <v>-0.33603715070335738</v>
+      </c>
+      <c r="E17">
+        <v>-0.18423122876187553</v>
+      </c>
+      <c r="F17">
+        <v>-0.46600868661262279</v>
+      </c>
+      <c r="G17">
+        <v>-0.44761202208613182</v>
+      </c>
+      <c r="H17">
+        <v>-0.42854584819993174</v>
+      </c>
+      <c r="I17">
+        <v>-0.57601878184274413</v>
+      </c>
+      <c r="J17">
+        <v>-0.53312208114747395</v>
+      </c>
+      <c r="K17">
+        <v>0.11477896437331775</v>
+      </c>
+      <c r="L17">
+        <v>0.13543126231860378</v>
+      </c>
+      <c r="M17">
+        <v>-2.2670681774305208E-2</v>
+      </c>
+      <c r="N17">
+        <v>-0.40822434192265838</v>
+      </c>
+      <c r="O17">
+        <v>-0.57087790802923977</v>
+      </c>
+      <c r="P17">
+        <v>-0.56066499828474581</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>-0.39301572149818764</v>
+      </c>
+      <c r="C18">
+        <v>-0.56867321081124456</v>
+      </c>
+      <c r="D18">
+        <v>-0.20264354045220825</v>
+      </c>
+      <c r="E18">
+        <v>-0.64237169145126172</v>
+      </c>
+      <c r="F18">
+        <v>-0.19937563686832235</v>
+      </c>
+      <c r="G18">
+        <v>-0.41786233119803184</v>
+      </c>
+      <c r="H18">
+        <v>-0.21820238856292432</v>
+      </c>
+      <c r="I18">
+        <v>-2.0199101992740713E-2</v>
+      </c>
+      <c r="J18">
+        <v>-0.14695154220741766</v>
+      </c>
+      <c r="K18">
+        <v>-0.54677941666234298</v>
+      </c>
+      <c r="L18">
+        <v>-0.5337855145492687</v>
+      </c>
+      <c r="M18">
+        <v>-0.48709779993447483</v>
+      </c>
+      <c r="N18">
+        <v>-2.5310793861930039E-2</v>
+      </c>
+      <c r="O18">
+        <v>-0.13615409425497621</v>
+      </c>
+      <c r="P18">
+        <v>-0.15376958422184381</v>
+      </c>
+      <c r="Q18">
+        <v>-0.33972958322346147</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.49895522256702052</v>
+      </c>
+      <c r="C19">
+        <v>0.62073815183978986</v>
+      </c>
+      <c r="D19">
+        <v>0.43941938936697522</v>
+      </c>
+      <c r="E19">
+        <v>0.716559833457172</v>
+      </c>
+      <c r="F19">
+        <v>0.44066025197971592</v>
+      </c>
+      <c r="G19">
+        <v>0.55363314327918989</v>
+      </c>
+      <c r="H19">
+        <v>0.42683191871940779</v>
+      </c>
+      <c r="I19">
+        <v>0.1302249952348519</v>
+      </c>
+      <c r="J19">
+        <v>0.39140945687548478</v>
+      </c>
+      <c r="K19">
+        <v>0.75872503934376145</v>
+      </c>
+      <c r="L19">
+        <v>0.74058606199892318</v>
+      </c>
+      <c r="M19">
+        <v>0.78229312491545189</v>
+      </c>
+      <c r="N19">
+        <v>0.21161800287647778</v>
+      </c>
+      <c r="O19">
+        <v>0.3989664065490906</v>
+      </c>
+      <c r="P19">
+        <v>0.41997964525533876</v>
+      </c>
+      <c r="Q19">
+        <v>-0.14903408201393931</v>
+      </c>
+      <c r="R19">
+        <v>-0.55144424616942334</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.3675130637115096</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.51627057626791639</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.2980944735718945</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.63418148531014729</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.3034372575831023</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.41020412588672639</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.28396193374042911</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0.10698317731590405</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0.2562835652390828</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0.74002958939858465</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0.73080751238934538</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0.71120256180705954</v>
+      </c>
+      <c r="N20" s="2">
+        <v>7.087406306090932E-2</v>
+      </c>
+      <c r="O20" s="2">
+        <v>0.28739624758043619</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0.2897655277033746</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>-5.9933330180694439E-2</v>
+      </c>
+      <c r="R20" s="2">
+        <v>-0.52533537832154298</v>
+      </c>
+      <c r="S20" s="2">
+        <v>0.93547929126718632</v>
+      </c>
+      <c r="T20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB406036-0565-7E45-AA8A-D60773688CA1}">
+  <dimension ref="A1:T20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.74209372874837232</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.64527555890791555</v>
+      </c>
+      <c r="C4">
+        <v>0.67096561264570265</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.69592891055480222</v>
+      </c>
+      <c r="C5">
+        <v>0.80561452907766284</v>
+      </c>
+      <c r="D5">
+        <v>0.54656646799752839</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.61616606955935349</v>
+      </c>
+      <c r="C6">
+        <v>0.6720754192037881</v>
+      </c>
+      <c r="D6">
+        <v>0.94561400932628215</v>
+      </c>
+      <c r="E6">
+        <v>0.53831151523600729</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.74131938497187044</v>
+      </c>
+      <c r="C7">
+        <v>0.84187201857440208</v>
+      </c>
+      <c r="D7">
+        <v>0.87802830890138273</v>
+      </c>
+      <c r="E7">
+        <v>0.70256608353198891</v>
+      </c>
+      <c r="F7">
+        <v>0.93066506401697935</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.64081364293971377</v>
+      </c>
+      <c r="C8">
+        <v>0.6849367435522824</v>
+      </c>
+      <c r="D8">
+        <v>0.9615292684865252</v>
+      </c>
+      <c r="E8">
+        <v>0.55307086566566865</v>
+      </c>
+      <c r="F8">
+        <v>0.99581834073954112</v>
+      </c>
+      <c r="G8">
+        <v>0.93047618236855645</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.29846032067717415</v>
+      </c>
+      <c r="C9">
+        <v>0.43710756314352345</v>
+      </c>
+      <c r="D9">
+        <v>0.15067747613983237</v>
+      </c>
+      <c r="E9">
+        <v>0.25134441896242404</v>
+      </c>
+      <c r="F9">
+        <v>0.27622296770916943</v>
+      </c>
+      <c r="G9">
+        <v>0.41435639636349575</v>
+      </c>
+      <c r="H9">
+        <v>0.24086591831278165</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.58781558541164947</v>
+      </c>
+      <c r="C10">
+        <v>0.65211393121602768</v>
+      </c>
+      <c r="D10">
+        <v>0.91827181678978942</v>
+      </c>
+      <c r="E10">
+        <v>0.50228965666348968</v>
+      </c>
+      <c r="F10">
+        <v>0.99368732022627959</v>
+      </c>
+      <c r="G10">
+        <v>0.91989927248269754</v>
+      </c>
+      <c r="H10">
+        <v>0.98455073013162464</v>
+      </c>
+      <c r="I10">
+        <v>0.31687858939657376</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.35179983214521898</v>
+      </c>
+      <c r="C11">
+        <v>0.40540934766320391</v>
+      </c>
+      <c r="D11">
+        <v>0.30839266871718413</v>
+      </c>
+      <c r="E11">
+        <v>0.56839800296480358</v>
+      </c>
+      <c r="F11">
+        <v>0.3099782320257386</v>
+      </c>
+      <c r="G11">
+        <v>0.33492182090966705</v>
+      </c>
+      <c r="H11">
+        <v>0.31431543941140822</v>
+      </c>
+      <c r="I11">
+        <v>-0.19971053075842268</v>
+      </c>
+      <c r="J11">
+        <v>0.26079008516531982</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.36131901925872889</v>
+      </c>
+      <c r="C12">
+        <v>0.45788331383935477</v>
+      </c>
+      <c r="D12">
+        <v>0.4215599131055579</v>
+      </c>
+      <c r="E12">
+        <v>0.60326782624055508</v>
+      </c>
+      <c r="F12">
+        <v>0.37078353477719089</v>
+      </c>
+      <c r="G12">
+        <v>0.39075432617424466</v>
+      </c>
+      <c r="H12">
+        <v>0.38323118504838855</v>
+      </c>
+      <c r="I12">
+        <v>-0.2822645035001507</v>
+      </c>
+      <c r="J12">
+        <v>0.31236544603781752</v>
+      </c>
+      <c r="K12">
+        <v>0.87523736179453204</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0.52342059054634038</v>
+      </c>
+      <c r="C13">
+        <v>0.56672533689044258</v>
+      </c>
+      <c r="D13">
+        <v>0.6500696396159904</v>
+      </c>
+      <c r="E13">
+        <v>0.65198428165749744</v>
+      </c>
+      <c r="F13">
+        <v>0.60070325886879494</v>
+      </c>
+      <c r="G13">
+        <v>0.59025980598962702</v>
+      </c>
+      <c r="H13">
+        <v>0.61835128269913531</v>
+      </c>
+      <c r="I13">
+        <v>-0.20139890279854281</v>
+      </c>
+      <c r="J13">
+        <v>0.54120248944602456</v>
+      </c>
+      <c r="K13">
+        <v>0.8707979558957688</v>
+      </c>
+      <c r="L13">
+        <v>0.90026441526234569</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0.41214548397495082</v>
+      </c>
+      <c r="C14">
+        <v>0.44717625448645149</v>
+      </c>
+      <c r="D14">
+        <v>0.84652382019246153</v>
+      </c>
+      <c r="E14">
+        <v>0.32475118318813223</v>
+      </c>
+      <c r="F14">
+        <v>0.92424630184528045</v>
+      </c>
+      <c r="G14">
+        <v>0.77321032345833463</v>
+      </c>
+      <c r="H14">
+        <v>0.9154258940325114</v>
+      </c>
+      <c r="I14">
+        <v>0.16982841354078437</v>
+      </c>
+      <c r="J14">
+        <v>0.9329532216612203</v>
+      </c>
+      <c r="K14">
+        <v>0.17345777858584221</v>
+      </c>
+      <c r="L14">
+        <v>0.23288343866306269</v>
+      </c>
+      <c r="M14">
+        <v>0.44819383846098432</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0.58374119885545395</v>
+      </c>
+      <c r="C15">
+        <v>0.66664087802371741</v>
+      </c>
+      <c r="D15">
+        <v>0.89799747360700777</v>
+      </c>
+      <c r="E15">
+        <v>0.49668289177496378</v>
+      </c>
+      <c r="F15">
+        <v>0.97173762060699287</v>
+      </c>
+      <c r="G15">
+        <v>0.91400032464136183</v>
+      </c>
+      <c r="H15">
+        <v>0.96224240255343441</v>
+      </c>
+      <c r="I15">
+        <v>0.35499451803530724</v>
+      </c>
+      <c r="J15">
+        <v>0.98291508409043149</v>
+      </c>
+      <c r="K15">
+        <v>0.2521009037777644</v>
+      </c>
+      <c r="L15">
+        <v>0.30125955737630988</v>
+      </c>
+      <c r="M15">
+        <v>0.52785503424262359</v>
+      </c>
+      <c r="N15">
+        <v>0.89019970189420905</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.57819416947018487</v>
+      </c>
+      <c r="C16">
+        <v>0.67684243104959207</v>
+      </c>
+      <c r="D16">
+        <v>0.89571852867817781</v>
+      </c>
+      <c r="E16">
+        <v>0.5285879090572787</v>
+      </c>
+      <c r="F16">
+        <v>0.98180859124879949</v>
+      </c>
+      <c r="G16">
+        <v>0.91232318229810117</v>
+      </c>
+      <c r="H16">
+        <v>0.96935964449360534</v>
+      </c>
+      <c r="I16">
+        <v>0.33676245496352214</v>
+      </c>
+      <c r="J16">
+        <v>0.99267584101737405</v>
+      </c>
+      <c r="K16">
+        <v>0.28956533760977854</v>
+      </c>
+      <c r="L16">
+        <v>0.33352963813335573</v>
+      </c>
+      <c r="M16">
+        <v>0.54860160547382919</v>
+      </c>
+      <c r="N16">
+        <v>0.92689101789595429</v>
+      </c>
+      <c r="O16">
+        <v>0.9766260386380744</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>-0.26121279422495669</v>
+      </c>
+      <c r="C17">
+        <v>-0.32612304570015793</v>
+      </c>
+      <c r="D17">
+        <v>-0.33603715070335738</v>
+      </c>
+      <c r="E17">
+        <v>-0.18423122876187553</v>
+      </c>
+      <c r="F17">
+        <v>-0.46600868661262279</v>
+      </c>
+      <c r="G17">
+        <v>-0.44761202208613182</v>
+      </c>
+      <c r="H17">
+        <v>-0.42854584819993174</v>
+      </c>
+      <c r="I17">
+        <v>-0.57601878184274413</v>
+      </c>
+      <c r="J17">
+        <v>-0.53312208114747395</v>
+      </c>
+      <c r="K17">
+        <v>0.11477896437331775</v>
+      </c>
+      <c r="L17">
+        <v>0.13543126231860378</v>
+      </c>
+      <c r="M17">
+        <v>-2.2670681774305208E-2</v>
+      </c>
+      <c r="N17">
+        <v>-0.40822434192265838</v>
+      </c>
+      <c r="O17">
+        <v>-0.57087790802923977</v>
+      </c>
+      <c r="P17">
+        <v>-0.56066499828474581</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>-0.39301572149818764</v>
+      </c>
+      <c r="C18">
+        <v>-0.56867321081124456</v>
+      </c>
+      <c r="D18">
+        <v>-0.20264354045220825</v>
+      </c>
+      <c r="E18">
+        <v>-0.64237169145126172</v>
+      </c>
+      <c r="F18">
+        <v>-0.19937563686832235</v>
+      </c>
+      <c r="G18">
+        <v>-0.41786233119803184</v>
+      </c>
+      <c r="H18">
+        <v>-0.21820238856292432</v>
+      </c>
+      <c r="I18">
+        <v>-2.0199101992740713E-2</v>
+      </c>
+      <c r="J18">
+        <v>-0.14695154220741766</v>
+      </c>
+      <c r="K18">
+        <v>-0.54677941666234298</v>
+      </c>
+      <c r="L18">
+        <v>-0.5337855145492687</v>
+      </c>
+      <c r="M18">
+        <v>-0.48709779993447483</v>
+      </c>
+      <c r="N18">
+        <v>-2.5310793861930039E-2</v>
+      </c>
+      <c r="O18">
+        <v>-0.13615409425497621</v>
+      </c>
+      <c r="P18">
+        <v>-0.15376958422184381</v>
+      </c>
+      <c r="Q18">
+        <v>-0.33972958322346147</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.49895522256702052</v>
+      </c>
+      <c r="C19">
+        <v>0.62073815183978986</v>
+      </c>
+      <c r="D19">
+        <v>0.43941938936697522</v>
+      </c>
+      <c r="E19">
+        <v>0.716559833457172</v>
+      </c>
+      <c r="F19">
+        <v>0.44066025197971592</v>
+      </c>
+      <c r="G19">
+        <v>0.55363314327918989</v>
+      </c>
+      <c r="H19">
+        <v>0.42683191871940779</v>
+      </c>
+      <c r="I19">
+        <v>0.1302249952348519</v>
+      </c>
+      <c r="J19">
+        <v>0.39140945687548478</v>
+      </c>
+      <c r="K19">
+        <v>0.75872503934376145</v>
+      </c>
+      <c r="L19">
+        <v>0.74058606199892318</v>
+      </c>
+      <c r="M19">
+        <v>0.78229312491545189</v>
+      </c>
+      <c r="N19">
+        <v>0.21161800287647778</v>
+      </c>
+      <c r="O19">
+        <v>0.3989664065490906</v>
+      </c>
+      <c r="P19">
+        <v>0.41997964525533876</v>
+      </c>
+      <c r="Q19">
+        <v>-0.14903408201393931</v>
+      </c>
+      <c r="R19">
+        <v>-0.55144424616942334</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.3675130637115096</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.51627057626791639</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.2980944735718945</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.63418148531014729</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.3034372575831023</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.41020412588672639</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.28396193374042911</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0.10698317731590405</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0.2562835652390828</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0.74002958939858465</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0.73080751238934538</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0.71120256180705954</v>
+      </c>
+      <c r="N20" s="2">
+        <v>7.087406306090932E-2</v>
+      </c>
+      <c r="O20" s="2">
+        <v>0.28739624758043619</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0.2897655277033746</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>-5.9933330180694439E-2</v>
+      </c>
+      <c r="R20" s="2">
+        <v>-0.52533537832154298</v>
+      </c>
+      <c r="S20" s="2">
+        <v>0.93547929126718632</v>
+      </c>
+      <c r="T20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15C4ABD4-4C55-7845-9316-2D55AD4BE71D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D11A852-401A-2F4F-8428-DB504CDB1E8A}">
+  <dimension ref="A1:T20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="60.6640625" customWidth="1"/>
+    <col min="3" max="3" width="74.33203125" customWidth="1"/>
+    <col min="4" max="4" width="72" customWidth="1"/>
+    <col min="5" max="5" width="74.33203125" customWidth="1"/>
+    <col min="6" max="6" width="66.5" customWidth="1"/>
+    <col min="7" max="7" width="71.5" customWidth="1"/>
+    <col min="8" max="8" width="63" customWidth="1"/>
+    <col min="9" max="9" width="26.5" customWidth="1"/>
+    <col min="10" max="10" width="32.33203125" customWidth="1"/>
+    <col min="11" max="11" width="50" customWidth="1"/>
+    <col min="12" max="12" width="53.5" customWidth="1"/>
+    <col min="13" max="13" width="85.6640625" customWidth="1"/>
+    <col min="14" max="14" width="30.1640625" customWidth="1"/>
+    <col min="15" max="15" width="42.6640625" customWidth="1"/>
+    <col min="16" max="16" width="38.6640625" customWidth="1"/>
+    <col min="17" max="17" width="20" customWidth="1"/>
+    <col min="18" max="18" width="39.33203125" customWidth="1"/>
+    <col min="19" max="19" width="20.6640625" customWidth="1"/>
+    <col min="20" max="20" width="34.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.74209372874837232</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.64527555890791555</v>
+      </c>
+      <c r="C4">
+        <v>0.67096561264570265</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.69592891055480222</v>
+      </c>
+      <c r="C5">
+        <v>0.80561452907766284</v>
+      </c>
+      <c r="D5">
+        <v>0.54656646799752839</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.61616606955935349</v>
+      </c>
+      <c r="C6">
+        <v>0.6720754192037881</v>
+      </c>
+      <c r="D6">
+        <v>0.94561400932628215</v>
+      </c>
+      <c r="E6">
+        <v>0.53831151523600729</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.74131938497187044</v>
+      </c>
+      <c r="C7">
+        <v>0.84187201857440208</v>
+      </c>
+      <c r="D7">
+        <v>0.87802830890138273</v>
+      </c>
+      <c r="E7">
+        <v>0.70256608353198891</v>
+      </c>
+      <c r="F7">
+        <v>0.93066506401697935</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.64081364293971377</v>
+      </c>
+      <c r="C8">
+        <v>0.6849367435522824</v>
+      </c>
+      <c r="D8">
+        <v>0.9615292684865252</v>
+      </c>
+      <c r="E8">
+        <v>0.55307086566566865</v>
+      </c>
+      <c r="F8">
+        <v>0.99581834073954112</v>
+      </c>
+      <c r="G8">
+        <v>0.93047618236855645</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.29846032067717415</v>
+      </c>
+      <c r="C9">
+        <v>0.43710756314352345</v>
+      </c>
+      <c r="D9">
+        <v>0.15067747613983237</v>
+      </c>
+      <c r="E9">
+        <v>0.25134441896242404</v>
+      </c>
+      <c r="F9">
+        <v>0.27622296770916943</v>
+      </c>
+      <c r="G9">
+        <v>0.41435639636349575</v>
+      </c>
+      <c r="H9">
+        <v>0.24086591831278165</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.58781558541164947</v>
+      </c>
+      <c r="C10">
+        <v>0.65211393121602768</v>
+      </c>
+      <c r="D10">
+        <v>0.91827181678978942</v>
+      </c>
+      <c r="E10">
+        <v>0.50228965666348968</v>
+      </c>
+      <c r="F10">
+        <v>0.99368732022627959</v>
+      </c>
+      <c r="G10">
+        <v>0.91989927248269754</v>
+      </c>
+      <c r="H10">
+        <v>0.98455073013162464</v>
+      </c>
+      <c r="I10">
+        <v>0.31687858939657376</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.35179983214521898</v>
+      </c>
+      <c r="C11">
+        <v>0.40540934766320391</v>
+      </c>
+      <c r="D11">
+        <v>0.30839266871718413</v>
+      </c>
+      <c r="E11">
+        <v>0.56839800296480358</v>
+      </c>
+      <c r="F11">
+        <v>0.3099782320257386</v>
+      </c>
+      <c r="G11">
+        <v>0.33492182090966705</v>
+      </c>
+      <c r="H11">
+        <v>0.31431543941140822</v>
+      </c>
+      <c r="I11">
+        <v>-0.19971053075842268</v>
+      </c>
+      <c r="J11">
+        <v>0.26079008516531982</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.36131901925872889</v>
+      </c>
+      <c r="C12">
+        <v>0.45788331383935477</v>
+      </c>
+      <c r="D12">
+        <v>0.4215599131055579</v>
+      </c>
+      <c r="E12">
+        <v>0.60326782624055508</v>
+      </c>
+      <c r="F12">
+        <v>0.37078353477719089</v>
+      </c>
+      <c r="G12">
+        <v>0.39075432617424466</v>
+      </c>
+      <c r="H12">
+        <v>0.38323118504838855</v>
+      </c>
+      <c r="I12">
+        <v>-0.2822645035001507</v>
+      </c>
+      <c r="J12">
+        <v>0.31236544603781752</v>
+      </c>
+      <c r="K12">
+        <v>0.87523736179453204</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0.52342059054634038</v>
+      </c>
+      <c r="C13">
+        <v>0.56672533689044258</v>
+      </c>
+      <c r="D13">
+        <v>0.6500696396159904</v>
+      </c>
+      <c r="E13">
+        <v>0.65198428165749744</v>
+      </c>
+      <c r="F13">
+        <v>0.60070325886879494</v>
+      </c>
+      <c r="G13">
+        <v>0.59025980598962702</v>
+      </c>
+      <c r="H13">
+        <v>0.61835128269913531</v>
+      </c>
+      <c r="I13">
+        <v>-0.20139890279854281</v>
+      </c>
+      <c r="J13">
+        <v>0.54120248944602456</v>
+      </c>
+      <c r="K13">
+        <v>0.8707979558957688</v>
+      </c>
+      <c r="L13">
+        <v>0.90026441526234569</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0.41214548397495082</v>
+      </c>
+      <c r="C14">
+        <v>0.44717625448645149</v>
+      </c>
+      <c r="D14">
+        <v>0.84652382019246153</v>
+      </c>
+      <c r="E14">
+        <v>0.32475118318813223</v>
+      </c>
+      <c r="F14">
+        <v>0.92424630184528045</v>
+      </c>
+      <c r="G14">
+        <v>0.77321032345833463</v>
+      </c>
+      <c r="H14">
+        <v>0.9154258940325114</v>
+      </c>
+      <c r="I14">
+        <v>0.16982841354078437</v>
+      </c>
+      <c r="J14">
+        <v>0.9329532216612203</v>
+      </c>
+      <c r="K14">
+        <v>0.17345777858584221</v>
+      </c>
+      <c r="L14">
+        <v>0.23288343866306269</v>
+      </c>
+      <c r="M14">
+        <v>0.44819383846098432</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0.58374119885545395</v>
+      </c>
+      <c r="C15">
+        <v>0.66664087802371741</v>
+      </c>
+      <c r="D15">
+        <v>0.89799747360700777</v>
+      </c>
+      <c r="E15">
+        <v>0.49668289177496378</v>
+      </c>
+      <c r="F15">
+        <v>0.97173762060699287</v>
+      </c>
+      <c r="G15">
+        <v>0.91400032464136183</v>
+      </c>
+      <c r="H15">
+        <v>0.96224240255343441</v>
+      </c>
+      <c r="I15">
+        <v>0.35499451803530724</v>
+      </c>
+      <c r="J15">
+        <v>0.98291508409043149</v>
+      </c>
+      <c r="K15">
+        <v>0.2521009037777644</v>
+      </c>
+      <c r="L15">
+        <v>0.30125955737630988</v>
+      </c>
+      <c r="M15">
+        <v>0.52785503424262359</v>
+      </c>
+      <c r="N15">
+        <v>0.89019970189420905</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.57819416947018487</v>
+      </c>
+      <c r="C16">
+        <v>0.67684243104959207</v>
+      </c>
+      <c r="D16">
+        <v>0.89571852867817781</v>
+      </c>
+      <c r="E16">
+        <v>0.5285879090572787</v>
+      </c>
+      <c r="F16">
+        <v>0.98180859124879949</v>
+      </c>
+      <c r="G16">
+        <v>0.91232318229810117</v>
+      </c>
+      <c r="H16">
+        <v>0.96935964449360534</v>
+      </c>
+      <c r="I16">
+        <v>0.33676245496352214</v>
+      </c>
+      <c r="J16">
+        <v>0.99267584101737405</v>
+      </c>
+      <c r="K16">
+        <v>0.28956533760977854</v>
+      </c>
+      <c r="L16">
+        <v>0.33352963813335573</v>
+      </c>
+      <c r="M16">
+        <v>0.54860160547382919</v>
+      </c>
+      <c r="N16">
+        <v>0.92689101789595429</v>
+      </c>
+      <c r="O16">
+        <v>0.9766260386380744</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>-0.26121279422495669</v>
+      </c>
+      <c r="C17">
+        <v>-0.32612304570015793</v>
+      </c>
+      <c r="D17">
+        <v>-0.33603715070335738</v>
+      </c>
+      <c r="E17">
+        <v>-0.18423122876187553</v>
+      </c>
+      <c r="F17">
+        <v>-0.46600868661262279</v>
+      </c>
+      <c r="G17">
+        <v>-0.44761202208613182</v>
+      </c>
+      <c r="H17">
+        <v>-0.42854584819993174</v>
+      </c>
+      <c r="I17">
+        <v>-0.57601878184274413</v>
+      </c>
+      <c r="J17">
+        <v>-0.53312208114747395</v>
+      </c>
+      <c r="K17">
+        <v>0.11477896437331775</v>
+      </c>
+      <c r="L17">
+        <v>0.13543126231860378</v>
+      </c>
+      <c r="M17">
+        <v>-2.2670681774305208E-2</v>
+      </c>
+      <c r="N17">
+        <v>-0.40822434192265838</v>
+      </c>
+      <c r="O17">
+        <v>-0.57087790802923977</v>
+      </c>
+      <c r="P17">
+        <v>-0.56066499828474581</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>-0.39301572149818764</v>
+      </c>
+      <c r="C18">
+        <v>-0.56867321081124456</v>
+      </c>
+      <c r="D18">
+        <v>-0.20264354045220825</v>
+      </c>
+      <c r="E18">
+        <v>-0.64237169145126172</v>
+      </c>
+      <c r="F18">
+        <v>-0.19937563686832235</v>
+      </c>
+      <c r="G18">
+        <v>-0.41786233119803184</v>
+      </c>
+      <c r="H18">
+        <v>-0.21820238856292432</v>
+      </c>
+      <c r="I18">
+        <v>-2.0199101992740713E-2</v>
+      </c>
+      <c r="J18">
+        <v>-0.14695154220741766</v>
+      </c>
+      <c r="K18">
+        <v>-0.54677941666234298</v>
+      </c>
+      <c r="L18">
+        <v>-0.5337855145492687</v>
+      </c>
+      <c r="M18">
+        <v>-0.48709779993447483</v>
+      </c>
+      <c r="N18">
+        <v>-2.5310793861930039E-2</v>
+      </c>
+      <c r="O18">
+        <v>-0.13615409425497621</v>
+      </c>
+      <c r="P18">
+        <v>-0.15376958422184381</v>
+      </c>
+      <c r="Q18">
+        <v>-0.33972958322346147</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.49895522256702052</v>
+      </c>
+      <c r="C19">
+        <v>0.62073815183978986</v>
+      </c>
+      <c r="D19">
+        <v>0.43941938936697522</v>
+      </c>
+      <c r="E19">
+        <v>0.716559833457172</v>
+      </c>
+      <c r="F19">
+        <v>0.44066025197971592</v>
+      </c>
+      <c r="G19">
+        <v>0.55363314327918989</v>
+      </c>
+      <c r="H19">
+        <v>0.42683191871940779</v>
+      </c>
+      <c r="I19">
+        <v>0.1302249952348519</v>
+      </c>
+      <c r="J19">
+        <v>0.39140945687548478</v>
+      </c>
+      <c r="K19">
+        <v>0.75872503934376145</v>
+      </c>
+      <c r="L19">
+        <v>0.74058606199892318</v>
+      </c>
+      <c r="M19">
+        <v>0.78229312491545189</v>
+      </c>
+      <c r="N19">
+        <v>0.21161800287647778</v>
+      </c>
+      <c r="O19">
+        <v>0.3989664065490906</v>
+      </c>
+      <c r="P19">
+        <v>0.41997964525533876</v>
+      </c>
+      <c r="Q19">
+        <v>-0.14903408201393931</v>
+      </c>
+      <c r="R19">
+        <v>-0.55144424616942334</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0.3675130637115096</v>
+      </c>
+      <c r="C20">
+        <v>0.51627057626791639</v>
+      </c>
+      <c r="D20">
+        <v>0.2980944735718945</v>
+      </c>
+      <c r="E20">
+        <v>0.63418148531014729</v>
+      </c>
+      <c r="F20">
+        <v>0.3034372575831023</v>
+      </c>
+      <c r="G20">
+        <v>0.41020412588672639</v>
+      </c>
+      <c r="H20">
+        <v>0.28396193374042911</v>
+      </c>
+      <c r="I20">
+        <v>0.10698317731590405</v>
+      </c>
+      <c r="J20">
+        <v>0.2562835652390828</v>
+      </c>
+      <c r="K20">
+        <v>0.74002958939858465</v>
+      </c>
+      <c r="L20">
+        <v>0.73080751238934538</v>
+      </c>
+      <c r="M20">
+        <v>0.71120256180705954</v>
+      </c>
+      <c r="N20">
+        <v>7.087406306090932E-2</v>
+      </c>
+      <c r="O20">
+        <v>0.28739624758043619</v>
+      </c>
+      <c r="P20">
+        <v>0.2897655277033746</v>
+      </c>
+      <c r="Q20">
+        <v>-5.9933330180694439E-2</v>
+      </c>
+      <c r="R20">
+        <v>-0.52533537832154298</v>
+      </c>
+      <c r="S20">
+        <v>0.93547929126718632</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E3A9BB2-B278-A541-A887-6FC942B727ED}">
+  <dimension ref="A1:T20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.74209372874837232</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.64527555890791555</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.67096561264570265</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.69592891055480222</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.80561452907766284</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.54656646799752839</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.61616606955935349</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.6720754192037881</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.94561400932628215</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.53831151523600729</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.74131938497187044</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.84187201857440208</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.87802830890138273</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.70256608353198891</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.93066506401697935</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.64081364293971377</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.6849367435522824</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.9615292684865252</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.55307086566566865</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.99581834073954112</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.93047618236855645</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.29846032067717415</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.43710756314352345</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.15067747613983237</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.25134441896242404</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.27622296770916943</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.41435639636349575</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.24086591831278165</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.58781558541164947</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.65211393121602768</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.91827181678978942</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.50228965666348968</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.99368732022627959</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.91989927248269754</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.98455073013162464</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.31687858939657376</v>
+      </c>
+      <c r="J10" s="4">
+        <v>1</v>
+      </c>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.35179983214521898</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.40540934766320391</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.30839266871718413</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.56839800296480358</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.3099782320257386</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.33492182090966705</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.31431543941140822</v>
+      </c>
+      <c r="I11" s="4">
+        <v>-0.19971053075842268</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0.26079008516531982</v>
+      </c>
+      <c r="K11" s="4">
+        <v>1</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.36131901925872889</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.45788331383935477</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.4215599131055579</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.60326782624055508</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.37078353477719089</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.39075432617424466</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0.38323118504838855</v>
+      </c>
+      <c r="I12" s="4">
+        <v>-0.2822645035001507</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.31236544603781752</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0.87523736179453204</v>
+      </c>
+      <c r="L12" s="4">
+        <v>1</v>
+      </c>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.52342059054634038</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.56672533689044258</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.6500696396159904</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.65198428165749744</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.60070325886879494</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.59025980598962702</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0.61835128269913531</v>
+      </c>
+      <c r="I13" s="4">
+        <v>-0.20139890279854281</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.54120248944602456</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0.8707979558957688</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0.90026441526234569</v>
+      </c>
+      <c r="M13" s="4">
+        <v>1</v>
+      </c>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.41214548397495082</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.44717625448645149</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.84652382019246153</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.32475118318813223</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.92424630184528045</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.77321032345833463</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0.9154258940325114</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0.16982841354078437</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0.9329532216612203</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0.17345777858584221</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0.23288343866306269</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0.44819383846098432</v>
+      </c>
+      <c r="N14" s="4">
+        <v>1</v>
+      </c>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.58374119885545395</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.66664087802371741</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.89799747360700777</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.49668289177496378</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.97173762060699287</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.91400032464136183</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0.96224240255343441</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0.35499451803530724</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0.98291508409043149</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0.2521009037777644</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0.30125955737630988</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0.52785503424262359</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0.89019970189420905</v>
+      </c>
+      <c r="O15" s="4">
+        <v>1</v>
+      </c>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.57819416947018487</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.67684243104959207</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.89571852867817781</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.5285879090572787</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.98180859124879949</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.91232318229810117</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0.96935964449360534</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0.33676245496352214</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0.99267584101737405</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0.28956533760977854</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0.33352963813335573</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0.54860160547382919</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0.92689101789595429</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0.9766260386380744</v>
+      </c>
+      <c r="P16" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4">
+        <v>-0.26121279422495669</v>
+      </c>
+      <c r="C17" s="4">
+        <v>-0.32612304570015793</v>
+      </c>
+      <c r="D17" s="4">
+        <v>-0.33603715070335738</v>
+      </c>
+      <c r="E17" s="4">
+        <v>-0.18423122876187553</v>
+      </c>
+      <c r="F17" s="4">
+        <v>-0.46600868661262279</v>
+      </c>
+      <c r="G17" s="4">
+        <v>-0.44761202208613182</v>
+      </c>
+      <c r="H17" s="4">
+        <v>-0.42854584819993174</v>
+      </c>
+      <c r="I17" s="4">
+        <v>-0.57601878184274413</v>
+      </c>
+      <c r="J17" s="4">
+        <v>-0.53312208114747395</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0.11477896437331775</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0.13543126231860378</v>
+      </c>
+      <c r="M17" s="4">
+        <v>-2.2670681774305208E-2</v>
+      </c>
+      <c r="N17" s="4">
+        <v>-0.40822434192265838</v>
+      </c>
+      <c r="O17" s="4">
+        <v>-0.57087790802923977</v>
+      </c>
+      <c r="P17" s="4">
+        <v>-0.56066499828474581</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>1</v>
+      </c>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4">
+        <v>-0.39301572149818764</v>
+      </c>
+      <c r="C18" s="4">
+        <v>-0.56867321081124456</v>
+      </c>
+      <c r="D18" s="4">
+        <v>-0.20264354045220825</v>
+      </c>
+      <c r="E18" s="4">
+        <v>-0.64237169145126172</v>
+      </c>
+      <c r="F18" s="4">
+        <v>-0.19937563686832235</v>
+      </c>
+      <c r="G18" s="4">
+        <v>-0.41786233119803184</v>
+      </c>
+      <c r="H18" s="4">
+        <v>-0.21820238856292432</v>
+      </c>
+      <c r="I18" s="4">
+        <v>-2.0199101992740713E-2</v>
+      </c>
+      <c r="J18" s="4">
+        <v>-0.14695154220741766</v>
+      </c>
+      <c r="K18" s="4">
+        <v>-0.54677941666234298</v>
+      </c>
+      <c r="L18" s="4">
+        <v>-0.5337855145492687</v>
+      </c>
+      <c r="M18" s="4">
+        <v>-0.48709779993447483</v>
+      </c>
+      <c r="N18" s="4">
+        <v>-2.5310793861930039E-2</v>
+      </c>
+      <c r="O18" s="4">
+        <v>-0.13615409425497621</v>
+      </c>
+      <c r="P18" s="4">
+        <v>-0.15376958422184381</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>-0.33972958322346147</v>
+      </c>
+      <c r="R18" s="4">
+        <v>1</v>
+      </c>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0.49895522256702052</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.62073815183978986</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.43941938936697522</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.716559833457172</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.44066025197971592</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0.55363314327918989</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0.42683191871940779</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0.1302249952348519</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0.39140945687548478</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0.75872503934376145</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0.74058606199892318</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0.78229312491545189</v>
+      </c>
+      <c r="N19" s="4">
+        <v>0.21161800287647778</v>
+      </c>
+      <c r="O19" s="4">
+        <v>0.3989664065490906</v>
+      </c>
+      <c r="P19" s="4">
+        <v>0.41997964525533876</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>-0.14903408201393931</v>
+      </c>
+      <c r="R19" s="4">
+        <v>-0.55144424616942334</v>
+      </c>
+      <c r="S19" s="4">
+        <v>1</v>
+      </c>
+      <c r="T19" s="4"/>
+    </row>
+    <row r="20" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0.3675130637115096</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.51627057626791639</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0.2980944735718945</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0.63418148531014729</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0.3034372575831023</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0.41020412588672639</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0.28396193374042911</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0.10698317731590405</v>
+      </c>
+      <c r="J20" s="5">
+        <v>0.2562835652390828</v>
+      </c>
+      <c r="K20" s="5">
+        <v>0.74002958939858465</v>
+      </c>
+      <c r="L20" s="5">
+        <v>0.73080751238934538</v>
+      </c>
+      <c r="M20" s="5">
+        <v>0.71120256180705954</v>
+      </c>
+      <c r="N20" s="5">
+        <v>7.087406306090932E-2</v>
+      </c>
+      <c r="O20" s="5">
+        <v>0.28739624758043619</v>
+      </c>
+      <c r="P20" s="5">
+        <v>0.2897655277033746</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>-5.9933330180694439E-2</v>
+      </c>
+      <c r="R20" s="5">
+        <v>-0.52533537832154298</v>
+      </c>
+      <c r="S20" s="5">
+        <v>0.93547929126718632</v>
+      </c>
+      <c r="T20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T231"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:T230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
